--- a/WorkwearTest/Samples/Excel/all_sizes.xlsx
+++ b/WorkwearTest/Samples/Excel/all_sizes.xlsx
@@ -608,7 +608,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
